--- a/excel_read/testcase_file/api_cases_V3.xlsx
+++ b/excel_read/testcase_file/api_cases_V3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>编号[0]</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>级别[19]</t>
+  </si>
+  <si>
+    <t>跳过？[20]</t>
   </si>
   <si>
     <t>http://shop-xo.hctestedu.com/index.php?s=</t>
@@ -243,7 +246,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,9 +263,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,6 +317,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -410,12 +431,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -716,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -728,144 +761,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1187,21 +1233,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="7.68518518518519" customWidth="1"/>
-    <col min="2" max="2" width="42.7314814814815" customWidth="1"/>
-    <col min="3" max="3" width="23.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="7.68518518518519" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.4907407407407" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.8981481481481" customWidth="1"/>
     <col min="5" max="5" width="31.7037037037037" customWidth="1"/>
     <col min="6" max="6" width="37.4259259259259" customWidth="1"/>
@@ -1218,16 +1264,17 @@
     <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="18.3703703703704" customWidth="1"/>
     <col min="19" max="19" width="17.6666666666667" customWidth="1"/>
+    <col min="21" max="21" width="11.7037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1281,229 +1328,238 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="27.6" customHeight="1" spans="1:20">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:20">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2">
+    <row r="4" ht="27.6" spans="1:21">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2">
+    <row r="5" ht="27.6" spans="1:21">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1536,15 +1592,15 @@
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/excel_read/testcase_file/api_cases_V3.xlsx
+++ b/excel_read/testcase_file/api_cases_V3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>编号[0]</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>S02_用户查询</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
   </si>
   <si>
     <t>1.以下几列，无值时一定要填None不然会报错</t>
@@ -889,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -900,9 +903,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1233,20 +1233,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="7.68518518518519" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.3240740740741" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.4907407407407" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.8981481481481" customWidth="1"/>
     <col min="5" max="5" width="31.7037037037037" customWidth="1"/>
@@ -1333,10 +1333,10 @@
       </c>
     </row>
     <row r="2" ht="27.6" customHeight="1" spans="1:20">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1360,7 +1360,7 @@
       <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1391,10 +1391,10 @@
       </c>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:20">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1443,10 +1443,10 @@
       </c>
     </row>
     <row r="4" ht="27.6" spans="1:21">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1504,10 +1504,10 @@
       </c>
     </row>
     <row r="5" ht="27.6" spans="1:21">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1560,6 +1560,120 @@
       </c>
       <c r="U5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1568,6 +1682,8 @@
     <hyperlink ref="B3" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
     <hyperlink ref="B4" r:id="rId2" display="http://39.98.138.157:5000/" tooltip="http://39.98.138.157:5000/"/>
     <hyperlink ref="B5" r:id="rId3" display="http://39.98.138.157:5000"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://localhost:5000/" tooltip="http://localhost:5000/"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://localhost:5000/" tooltip="http://localhost:5000/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1592,15 +1708,15 @@
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/excel_read/testcase_file/api_cases_V3.xlsx
+++ b/excel_read/testcase_file/api_cases_V3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>编号[0]</t>
   </si>
@@ -225,7 +225,10 @@
     <t>S02_用户查询</t>
   </si>
   <si>
-    <t>http://localhost:5000/</t>
+    <t>http://127.0.0.1:5000/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000</t>
   </si>
   <si>
     <t>1.以下几列，无值时一定要填None不然会报错</t>
@@ -1236,11 +1239,11 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1442,7 +1445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="27.6" spans="1:21">
+    <row r="4" spans="1:21">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="27.6" spans="1:21">
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1620,12 +1623,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" ht="40" customHeight="1" spans="1:20">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>57</v>
@@ -1682,8 +1685,8 @@
     <hyperlink ref="B3" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
     <hyperlink ref="B4" r:id="rId2" display="http://39.98.138.157:5000/" tooltip="http://39.98.138.157:5000/"/>
     <hyperlink ref="B5" r:id="rId3" display="http://39.98.138.157:5000"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://localhost:5000/" tooltip="http://localhost:5000/"/>
-    <hyperlink ref="B7" r:id="rId4" display="http://localhost:5000/" tooltip="http://localhost:5000/"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://127.0.0.1:5000/" tooltip="http://127.0.0.1:5000/"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://127.0.0.1:5000" tooltip="http://127.0.0.1:5000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1708,15 +1711,15 @@
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
